--- a/script/results/Charts.xlsx
+++ b/script/results/Charts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202FA20-9150-42A6-A09E-CD76B523E59F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FDE2A8-802D-419C-B34D-A5987B79F461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1:$D$1121</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$58:$F$2557</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$558:$G$2557</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1:$C$1121</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$1:$D$1121</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$58:$F$2557</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$B$1121</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$C$1121</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$558:$H$2557</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$558:$H$2557</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$558:$H$2557</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$558:$H$2557</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$558:$H$2557</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$558:$G$2557</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>keyw</t>
   </si>
@@ -190,7 +187,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -260,7 +257,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -330,7 +327,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -355,10 +352,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="el-GR" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -369,7 +366,7 @@
                   </a:rPr>
                   <a:t>α</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -384,6 +381,23 @@
         </cx:title>
         <cx:tickLabels/>
         <cx:numFmt formatCode="0,0" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -394,10 +408,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -408,7 +422,7 @@
                   </a:rPr>
                   <a:t>Количество статей</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -423,6 +437,23 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -434,7 +465,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -454,31 +485,51 @@
         <cx:catScaling gapWidth="0"/>
         <cx:title>
           <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                  </a:rPr>
-                  <a:t>𝛽</a:t>
-                </a:r>
-              </a:p>
-            </cx:rich>
+            <cx:txData>
+              <cx:v>𝛽</cx:v>
+            </cx:txData>
           </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1800"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>𝛽</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
         <cx:numFmt formatCode="0,0" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -489,10 +540,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -503,7 +554,7 @@
                   </a:rPr>
                   <a:t>Количество статей</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -518,6 +569,23 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -529,7 +597,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -554,7 +622,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="el-GR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -583,6 +651,23 @@
         </cx:title>
         <cx:tickLabels/>
         <cx:numFmt formatCode="0,0" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -593,10 +678,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -607,7 +692,7 @@
                   </a:rPr>
                   <a:t>Количество статей</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -622,6 +707,23 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -4287,15 +4389,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>11615</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>11616</xdr:rowOff>
+      <xdr:rowOff>69695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>11501</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>604023</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>174239</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4331,8 +4433,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7190213" y="10605275"/>
-              <a:ext cx="5874370" cy="3345250"/>
+              <a:off x="7201828" y="10663354"/>
+              <a:ext cx="9048750" cy="5122592"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4365,15 +4467,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>23232</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>104542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11616</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4409,8 +4511,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7219950" y="14478000"/>
-              <a:ext cx="5934075" cy="3195638"/>
+              <a:off x="7262232" y="16297042"/>
+              <a:ext cx="9132384" cy="4810358"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4443,15 +4545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11614</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4487,8 +4589,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7219950" y="17907000"/>
-              <a:ext cx="5924550" cy="3395663"/>
+              <a:off x="7274427" y="22883812"/>
+              <a:ext cx="9275261" cy="5092473"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4520,16 +4622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>185854</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>139390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>576378</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>58311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4559,8 +4661,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13925550" y="11049000"/>
-          <a:ext cx="5876925" cy="3343275"/>
+          <a:off x="16436433" y="10918902"/>
+          <a:ext cx="5826744" cy="3264287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4581,16 +4683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>499483</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>139390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>295508</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>29737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4620,8 +4722,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13925550" y="14478000"/>
-          <a:ext cx="5886450" cy="3124200"/>
+          <a:off x="18562135" y="16122805"/>
+          <a:ext cx="5836269" cy="3049859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4642,16 +4744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>536652</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>171133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4681,8 +4783,191 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14535150" y="17907000"/>
-          <a:ext cx="5876925" cy="3314700"/>
+          <a:off x="17086340" y="23574375"/>
+          <a:ext cx="6226098" cy="3457258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E6D407-BC6F-433E-A2E9-4C1E28BB5179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23069550" y="11620500"/>
+          <a:ext cx="9048750" cy="5124450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C847D41-3CFB-46A4-9554-B886DB5F7ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24898350" y="16954500"/>
+          <a:ext cx="9172575" cy="4819650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13413FED-D3E8-4B5A-9129-475191281EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24898350" y="23622000"/>
+          <a:ext cx="9277350" cy="5095875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4969,8 +5254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="V95" sqref="V95"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AM125" sqref="AM125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6434,7 +6719,7 @@
       </c>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -6461,7 +6746,7 @@
       </c>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -6488,7 +6773,7 @@
       </c>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -6515,7 +6800,7 @@
       </c>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -6542,7 +6827,7 @@
       </c>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -6569,7 +6854,7 @@
       </c>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -6596,7 +6881,7 @@
       </c>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -6623,7 +6908,7 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -6650,7 +6935,7 @@
       </c>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -6677,7 +6962,7 @@
       </c>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -6704,7 +6989,7 @@
       </c>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -6731,7 +7016,7 @@
       </c>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -6758,7 +7043,7 @@
       </c>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -6785,7 +7070,7 @@
       </c>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -6812,7 +7097,7 @@
       </c>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -6838,11 +7123,8 @@
         <v>8.0122797191174104</v>
       </c>
       <c r="I95" s="3"/>
-      <c r="T95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
